--- a/학습내용.xlsx
+++ b/학습내용.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\IdeaProjects\algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\IdeaProjects\algorithms\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11820" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,18 +19,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>1. 백준 한문제
+2. 더미데이터 article클래스에 넣고 use클래스와 연관관계 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Atomic 패턴
+2. reducx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 쿼리 실행으로 더미 데이터 생성
+2. Tailwind CSS
+3. DB까지 연결해서 HTML까지 꺼내보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
+2. vi 설치 및 기본 명령어 연습</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1.MUI Data Grid
+2. XML
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 백준10870
+2. 리액트 복습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 자바스크립트 : JSON, array
+2. 자바스크립트에서 함수도 객체다
+3. 게시판 컨트롤러 중 Getmapping
+    @GetMapping("/api/articles")
+    public Map&lt;?,?&gt; findAll() throws SQLException{
+        Map&lt;String, Object&gt; map = new HashMap&lt;&gt;();
+        map.put("message", Messenger.SUCCESS);
+        @SuppressWarnings("unchecked")
+        List&lt;Article&gt; list = new ArrayList&lt;&gt;();
+        list.add(Article.builder()
+        .id(1L)
+        .title("스프링부트로 MSA")
+        .content("스프링부트")
+        .writer("김병부")
+        .registerDate("240327")
+        .build());
+        //list= service.findAll();
+        map.put("result",list);
+        return map;
+    }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
   <x:si>
     <x:t>오전</x:t>
   </x:si>
   <x:si>
     <x:t>오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1. 리액트 : 맵에 담아 처리하기
@@ -107,14 +155,6 @@
 }
 </x:t>
   </x:si>
-  <x:si>
-    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
-2. vi 설치 및 기본 명령어 연습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 백준10870
-2. 리액트 복습</x:t>
-  </x:si>
 </x:sst>
 </file>
 
@@ -181,7 +221,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -845,49 +888,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:I2"/>
+  <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I8" activeCellId="0" sqref="I8:I8"/>
+      <x:selection activeCell="I2" activeCellId="0" sqref="I2:I2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.00390625" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="33.625" customWidth="1"/>
+    <x:col min="1" max="1" width="9.00390625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="33.625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:5">
-      <x:c r="B1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>3</x:v>
+      <x:c r="B1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <x:c r="A2">
+      <x:c r="A2" s="1">
         <x:v>240326</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="I2" s="2"/>
+    </x:row>
+    <x:row r="3" spans="2:3" ht="19.5" customHeight="1">
+      <x:c r="B3" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:4" ht="163.69999999999999">
+      <x:c r="B4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I2" s="1"/>
+      <x:c r="C4" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/학습내용.xlsx
+++ b/학습내용.xlsx
@@ -19,32 +19,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>1. 백준 한문제
 2. 더미데이터 article클래스에 넣고 use클래스와 연관관계 설정</x:t>
   </x:si>
   <x:si>
+    <x:t>오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. Atomic 패턴
 2. reducx</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 쿼리 실행으로 더미 데이터 생성
-2. Tailwind CSS
-3. DB까지 연결해서 HTML까지 꺼내보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
-2. vi 설치 및 기본 명령어 연습</x:t>
+    <x:t>1. 백준10870
+2. 리액트 복습</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1.MUI Data Grid
 2. XML
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 백준10870
-2. 리액트 복습</x:t>
   </x:si>
   <x:si>
     <x:t>1. 자바스크립트 : JSON, array
@@ -69,16 +72,17 @@
     }</x:t>
   </x:si>
   <x:si>
-    <x:t>저녁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오후</x:t>
+    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
+2. vi 설치 및 기본 명령어 연습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Mui-icons
+2. NextPage 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 쿼리 실행으로 더미 데이터 생성
+2. Tailwind CSS
+3. DB까지 연결해서 HTML까지 꺼내보기</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1. 리액트 : 맵에 담아 처리하기
@@ -154,6 +158,29 @@
   );
 }
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. redux
+2. atomic 패턴으로 페이지 나누기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백준 11650
+public class Baekjoon11650 {
+    public static void main(String[] args) {
+        Scanner sc = new Scanner(System.in);
+        int testCase = sc.nextInt();
+        int[][] arr = new int[testCase][2];
+        for(int i=0;i&lt;testCase;i++){
+            arr[i][0] = sc.nextInt();
+            arr[i][1] = sc.nextInt();
+        }
+        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[1])));
+        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[0])));
+        for (int[] point : arr) {
+            System.out.println(point[0] + " " + point[1]);
+        }
+    }
+}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -888,10 +915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:I4"/>
+  <x:dimension ref="A1:I5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I2" activeCellId="0" sqref="I2:I2"/>
+      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -902,16 +929,16 @@
   <x:sheetData>
     <x:row r="1" spans="2:5">
       <x:c r="B1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9" ht="25.5" customHeight="1">
@@ -919,37 +946,48 @@
         <x:v>240326</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I2" s="2"/>
     </x:row>
     <x:row r="3" spans="2:3" ht="19.5" customHeight="1">
       <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4" ht="163.69999999999999">
       <x:c r="B4" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="2:4" ht="409.5">
+      <x:c r="B5" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/학습내용.xlsx
+++ b/학습내용.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11790" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,35 +19,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>1. 백준 한문제
 2. 더미데이터 article클래스에 넣고 use클래스와 연관관계 설정</x:t>
   </x:si>
   <x:si>
-    <x:t>오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁</x:t>
+    <x:t>쿠버네티스, 도커</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 쿼리 실행으로 더미 데이터 생성
+2. Tailwind CSS
+3. DB까지 연결해서 HTML까지 꺼내보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백준 11650
+public class Baekjoon11650 {
+    public static void main(String[] args) {
+        Scanner sc = new Scanner(System.in);
+        int testCase = sc.nextInt();
+        int[][] arr = new int[testCase][2];
+        for(int i=0;i&lt;testCase;i++){
+            arr[i][0] = sc.nextInt();
+            arr[i][1] = sc.nextInt();
+        }
+        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[1])));
+        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[0])));
+        for (int[] point : arr) {
+            System.out.println(point[0] + " " + point[1]);
+        }
+    }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
+2. vi 설치 및 기본 명령어 연습</x:t>
   </x:si>
   <x:si>
     <x:t>1. Atomic 패턴
 2. reducx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 백준10870
-2. 리액트 복습</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1.MUI Data Grid
 2. XML
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 백준10870
+2. 리액트 복습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. redux
+2. atomic 패턴으로 페이지 나누기</x:t>
   </x:si>
   <x:si>
     <x:t>1. 자바스크립트 : JSON, array
@@ -72,17 +107,8 @@
     }</x:t>
   </x:si>
   <x:si>
-    <x:t>1. docker 컨테이너 생성 및 스프링 부트와 포트 수정 연결
-2. vi 설치 및 기본 명령어 연습</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. Mui-icons
 2. NextPage 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 쿼리 실행으로 더미 데이터 생성
-2. Tailwind CSS
-3. DB까지 연결해서 HTML까지 꺼내보기</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">1. 리액트 : 맵에 담아 처리하기
@@ -158,29 +184,6 @@
   );
 }
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. redux
-2. atomic 패턴으로 페이지 나누기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백준 11650
-public class Baekjoon11650 {
-    public static void main(String[] args) {
-        Scanner sc = new Scanner(System.in);
-        int testCase = sc.nextInt();
-        int[][] arr = new int[testCase][2];
-        for(int i=0;i&lt;testCase;i++){
-            arr[i][0] = sc.nextInt();
-            arr[i][1] = sc.nextInt();
-        }
-        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[1])));
-        Arrays.sort(arr, Comparator.comparingInt((a-&gt;a[0])));
-        for (int[] point : arr) {
-            System.out.println(point[0] + " " + point[1]);
-        }
-    }
-}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -915,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:I5"/>
+  <x:dimension ref="A1:I8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -929,16 +932,16 @@
   <x:sheetData>
     <x:row r="1" spans="2:5">
       <x:c r="B1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:9" ht="25.5" customHeight="1">
@@ -946,27 +949,27 @@
         <x:v>240326</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I2" s="2"/>
     </x:row>
     <x:row r="3" spans="2:3" ht="19.5" customHeight="1">
       <x:c r="B3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="2:4" ht="163.69999999999999">
+    <x:row r="4" spans="2:4" ht="33" customHeight="1">
       <x:c r="B4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
         <x:v>5</x:v>
@@ -975,15 +978,23 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="2:4" ht="409.5">
+    <x:row r="5" spans="2:4" ht="27.75" customHeight="1">
       <x:c r="B5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="1">
+        <x:v>240403</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
